--- a/data/trans_orig/Q5401-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>27066</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18655</v>
+        <v>18712</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37475</v>
+        <v>37732</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07252513990845996</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04998710585281906</v>
+        <v>0.0501416289834167</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.100418123134822</v>
+        <v>0.1011062520393534</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -765,19 +765,19 @@
         <v>41707</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29755</v>
+        <v>30117</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53866</v>
+        <v>58279</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0709605913977408</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0506254540738041</v>
+        <v>0.05124184541753553</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09164862460779767</v>
+        <v>0.09915682589715759</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>68</v>
@@ -786,19 +786,19 @@
         <v>68773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>54153</v>
+        <v>54929</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87288</v>
+        <v>88634</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07156819771207565</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05635440843111648</v>
+        <v>0.05716163319632291</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.09083646277031283</v>
+        <v>0.0922371264857485</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>64691</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>50927</v>
+        <v>52090</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80875</v>
+        <v>78812</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1733476459817524</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1364635131133755</v>
+        <v>0.1395820338799815</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2167121253817725</v>
+        <v>0.2111843740255646</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>132</v>
@@ -836,19 +836,19 @@
         <v>141974</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>122038</v>
+        <v>121699</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>163790</v>
+        <v>164004</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2415559185244459</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2076365036141863</v>
+        <v>0.2070590374237153</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2786740964348672</v>
+        <v>0.2790381202394229</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>202</v>
@@ -857,19 +857,19 @@
         <v>206666</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>182295</v>
+        <v>181655</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>234479</v>
+        <v>232714</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2150666298875835</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1897048041647923</v>
+        <v>0.1890389790897956</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2440106115007309</v>
+        <v>0.2421736215340586</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>281432</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>264469</v>
+        <v>264638</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>296957</v>
+        <v>296903</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7541272141097877</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7086738498203305</v>
+        <v>0.7091270286446436</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7957280128716125</v>
+        <v>0.7955834277294794</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>403</v>
@@ -907,19 +907,19 @@
         <v>404068</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>381926</v>
+        <v>379151</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>424620</v>
+        <v>424699</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6874834900778133</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6498108667102558</v>
+        <v>0.6450895676447735</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7224513566878578</v>
+        <v>0.7225849164291345</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>703</v>
@@ -928,19 +928,19 @@
         <v>685500</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>656238</v>
+        <v>657318</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>713146</v>
+        <v>711837</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7133651724003408</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6829143197417524</v>
+        <v>0.6840379398619634</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7421356674009907</v>
+        <v>0.7407732321115249</v>
       </c>
     </row>
     <row r="7">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5667</v>
+        <v>5649</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02026154296513996</v>
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06433594019383961</v>
+        <v>0.06413465280152938</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -1053,19 +1053,19 @@
         <v>5229</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2015</v>
+        <v>1992</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10922</v>
+        <v>11619</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08404715020375597</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03238629491787608</v>
+        <v>0.03201233235886498</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1755612104366634</v>
+        <v>0.1867592512562416</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1074,19 +1074,19 @@
         <v>7013</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2969</v>
+        <v>3103</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13210</v>
+        <v>13534</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04666447372547275</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01975763920816986</v>
+        <v>0.02064774187558653</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08789055904032807</v>
+        <v>0.09004958192537776</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>10652</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6101</v>
+        <v>6037</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17697</v>
+        <v>17221</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1209321885581548</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06925953046827184</v>
+        <v>0.06854052781564346</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2009126569363762</v>
+        <v>0.1955035990371507</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>7</v>
@@ -1124,19 +1124,19 @@
         <v>8270</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3567</v>
+        <v>3864</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15476</v>
+        <v>15575</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1329352856884982</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05733547231310178</v>
+        <v>0.06210579298874624</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2487588950426612</v>
+        <v>0.2503562477345226</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>19</v>
@@ -1145,19 +1145,19 @@
         <v>18922</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>12028</v>
+        <v>11618</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>28261</v>
+        <v>28341</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1259006595998499</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08002872231298959</v>
+        <v>0.07729955390100728</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1880351466629116</v>
+        <v>0.1885701662383876</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>75646</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>68741</v>
+        <v>68821</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80893</v>
+        <v>80804</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8588062684767053</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7804121928574619</v>
+        <v>0.7813212891720013</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9183731857977501</v>
+        <v>0.9173590991680275</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>48</v>
@@ -1195,19 +1195,19 @@
         <v>48713</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40571</v>
+        <v>40411</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54486</v>
+        <v>54777</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7830175641077459</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6521426740782877</v>
+        <v>0.6495752084680095</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8758110907523546</v>
+        <v>0.8804824421704028</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>123</v>
@@ -1216,19 +1216,19 @@
         <v>124359</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>114550</v>
+        <v>114595</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132549</v>
+        <v>133205</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8274348666746772</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7621709203739477</v>
+        <v>0.7624662707429938</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8819279714519906</v>
+        <v>0.8862897749777213</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5110</v>
+        <v>5226</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02318860659642652</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1240463819592315</v>
+        <v>0.1268677140568061</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7169</v>
+        <v>6579</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07530920836487574</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2667110423241276</v>
+        <v>0.2447353367656645</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>3</v>
@@ -1362,19 +1362,19 @@
         <v>2980</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>845</v>
+        <v>852</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>8167</v>
+        <v>7986</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04376944792576149</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01241585648762958</v>
+        <v>0.012518291680369</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1199684284932011</v>
+        <v>0.1173096333514639</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>8879</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3496</v>
+        <v>3537</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16533</v>
+        <v>16264</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.215547424583939</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08486090540355952</v>
+        <v>0.08585106194977669</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4013446658245682</v>
+        <v>0.3948097924758613</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -1412,19 +1412,19 @@
         <v>7707</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3387</v>
+        <v>3572</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13331</v>
+        <v>13310</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2867212355665141</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1260025366218545</v>
+        <v>0.1328838449666393</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4959348066109864</v>
+        <v>0.4951352037229174</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>13</v>
@@ -1433,19 +1433,19 @@
         <v>16587</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>9568</v>
+        <v>9622</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24954</v>
+        <v>26220</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2436517990718631</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1405528668461594</v>
+        <v>0.1413404725693965</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3665673788151056</v>
+        <v>0.385159158568448</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>31360</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23839</v>
+        <v>23596</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36665</v>
+        <v>36782</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7612639688196344</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5786976634308039</v>
+        <v>0.5727898103176534</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.890058664466011</v>
+        <v>0.8928945365247366</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -1483,19 +1483,19 @@
         <v>17149</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11318</v>
+        <v>12007</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21530</v>
+        <v>21467</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6379695560686102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4210274117111026</v>
+        <v>0.446668965263779</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8009414901760479</v>
+        <v>0.7985851011379755</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>46</v>
@@ -1504,19 +1504,19 @@
         <v>48509</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>39629</v>
+        <v>38718</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>56244</v>
+        <v>56059</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7125787530023754</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5821303434456057</v>
+        <v>0.5687542797075108</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8262021481374716</v>
+        <v>0.8234822620074919</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>29806</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>21270</v>
+        <v>21688</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>41682</v>
+        <v>41149</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05931846602711142</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04233154225736865</v>
+        <v>0.04316393672243903</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08295476767335691</v>
+        <v>0.08189369985587937</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>46</v>
@@ -1629,19 +1629,19 @@
         <v>48960</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35819</v>
+        <v>37059</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65019</v>
+        <v>65040</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07233614551362993</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05292074183494461</v>
+        <v>0.05475229406411029</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09606210838512809</v>
+        <v>0.09609313802415333</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -1650,19 +1650,19 @@
         <v>78766</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62499</v>
+        <v>62533</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>96668</v>
+        <v>96481</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06678972219320285</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05299672259351646</v>
+        <v>0.0530254378908319</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0819702105084536</v>
+        <v>0.081811293491312</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>84223</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68586</v>
+        <v>69075</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>102466</v>
+        <v>103252</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1676188681038333</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1364988289842348</v>
+        <v>0.1374718465026886</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2039253649156608</v>
+        <v>0.2054901272644824</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>146</v>
@@ -1700,19 +1700,19 @@
         <v>157952</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>134168</v>
+        <v>136621</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>179763</v>
+        <v>180706</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2333658042536964</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1982270882978441</v>
+        <v>0.201850240510784</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.265590785662426</v>
+        <v>0.266983415648398</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>234</v>
@@ -1721,19 +1721,19 @@
         <v>242175</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>215696</v>
+        <v>216785</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>271637</v>
+        <v>270684</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2053531050406083</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1829007391368441</v>
+        <v>0.1838241909055998</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2303355969406718</v>
+        <v>0.2295281752619562</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>388438</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>368769</v>
+        <v>367864</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>406832</v>
+        <v>405105</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7730626658690553</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7339173579621318</v>
+        <v>0.7321171344843025</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8096709052238545</v>
+        <v>0.8062339847428373</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>469</v>
@@ -1771,19 +1771,19 @@
         <v>469930</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>445142</v>
+        <v>444283</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>495122</v>
+        <v>493120</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6942980502326737</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6576742286959046</v>
+        <v>0.6564059367411272</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7315172164839109</v>
+        <v>0.7285604723743735</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>872</v>
@@ -1792,19 +1792,19 @@
         <v>858368</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>826418</v>
+        <v>829621</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>889753</v>
+        <v>888570</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7278571727661889</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.700765285243385</v>
+        <v>0.7034815820812487</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7544702547005391</v>
+        <v>0.75346700022295</v>
       </c>
     </row>
     <row r="19">
@@ -2135,19 +2135,19 @@
         <v>49910</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36168</v>
+        <v>37288</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64873</v>
+        <v>65161</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1204409250072323</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08727833757578404</v>
+        <v>0.08998090721673578</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1565467448378262</v>
+        <v>0.1572430248552137</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>80</v>
@@ -2156,19 +2156,19 @@
         <v>88862</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73114</v>
+        <v>72134</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>108692</v>
+        <v>108803</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1400407360467857</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1152220825254188</v>
+        <v>0.113678936403915</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1712909722250095</v>
+        <v>0.1714659298655019</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>124</v>
@@ -2177,19 +2177,19 @@
         <v>138772</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>116678</v>
+        <v>118835</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>162463</v>
+        <v>162890</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.132297586551078</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1112337316292219</v>
+        <v>0.113290491652747</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1548825743635703</v>
+        <v>0.1552902148414826</v>
       </c>
     </row>
     <row r="5">
@@ -2206,19 +2206,19 @@
         <v>68686</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54033</v>
+        <v>52818</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>86158</v>
+        <v>88580</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1657482873997179</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1303882605639525</v>
+        <v>0.1274561603653201</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2079110265986139</v>
+        <v>0.2137562096722792</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>128</v>
@@ -2227,19 +2227,19 @@
         <v>135767</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>114555</v>
+        <v>114761</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>156389</v>
+        <v>156608</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2139601529643273</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1805302615327287</v>
+        <v>0.1808561877839904</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.246458961409598</v>
+        <v>0.2468039638496688</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>188</v>
@@ -2248,19 +2248,19 @@
         <v>204453</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>177679</v>
+        <v>179801</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>231748</v>
+        <v>229590</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1949134549231895</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1693887477425887</v>
+        <v>0.171411996924543</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2209350087210172</v>
+        <v>0.2188780913485786</v>
       </c>
     </row>
     <row r="6">
@@ -2277,19 +2277,19 @@
         <v>295802</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>275634</v>
+        <v>276719</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>315133</v>
+        <v>314134</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7138107875930497</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6651430574091379</v>
+        <v>0.6677612778844929</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7604599888149354</v>
+        <v>0.7580492505343563</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>388</v>
@@ -2298,19 +2298,19 @@
         <v>409916</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>386732</v>
+        <v>387017</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>435880</v>
+        <v>436342</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.645999110988887</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6094630007474622</v>
+        <v>0.6099126575493068</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6869169690391566</v>
+        <v>0.6876454860778668</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>662</v>
@@ -2319,19 +2319,19 @@
         <v>705717</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>675147</v>
+        <v>673714</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>736584</v>
+        <v>737351</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6727889585257326</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6436461599430753</v>
+        <v>0.6422797389239716</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7022159648093174</v>
+        <v>0.7029476157134993</v>
       </c>
     </row>
     <row r="7">
@@ -2423,19 +2423,19 @@
         <v>4034</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1019</v>
+        <v>1051</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9547</v>
+        <v>10496</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03399744525636987</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.008589235724528414</v>
+        <v>0.008853850596127992</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0804561668602352</v>
+        <v>0.08845039433853184</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -2444,19 +2444,19 @@
         <v>3480</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10427</v>
+        <v>9241</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04189365481281314</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01261018199402261</v>
+        <v>0.01258777093331808</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1255169495434149</v>
+        <v>0.1112324746618825</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -2465,19 +2465,19 @@
         <v>7515</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3076</v>
+        <v>3195</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14667</v>
+        <v>14562</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03724903511177621</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01524969279885825</v>
+        <v>0.01583732233239516</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07270511799401716</v>
+        <v>0.07218215521158421</v>
       </c>
     </row>
     <row r="9">
@@ -2494,19 +2494,19 @@
         <v>15024</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8403</v>
+        <v>8807</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24759</v>
+        <v>23573</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1266056746103728</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07081009603964135</v>
+        <v>0.07421623453506887</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2086455494663988</v>
+        <v>0.1986519598847757</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>11</v>
@@ -2515,19 +2515,19 @@
         <v>12774</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>6389</v>
+        <v>6907</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20691</v>
+        <v>21915</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1537668893831112</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07690620492732704</v>
+        <v>0.08313730932895451</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2490671878121536</v>
+        <v>0.2637955649605154</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>24</v>
@@ -2536,19 +2536,19 @@
         <v>27798</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18816</v>
+        <v>18039</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40169</v>
+        <v>39989</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1377904246837144</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09327044115267072</v>
+        <v>0.08941929268007225</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1991147838787647</v>
+        <v>0.1982199571160718</v>
       </c>
     </row>
     <row r="10">
@@ -2565,19 +2565,19 @@
         <v>99607</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89017</v>
+        <v>89945</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107217</v>
+        <v>106776</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8393968801332573</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7501565140976819</v>
+        <v>0.7579727254865808</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9035293671207946</v>
+        <v>0.899808884620251</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -2586,19 +2586,19 @@
         <v>66820</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58152</v>
+        <v>57663</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>73581</v>
+        <v>73688</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8043394558040757</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7000042491724592</v>
+        <v>0.6941194985753877</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8857261974208064</v>
+        <v>0.887018530993552</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>151</v>
@@ -2607,19 +2607,19 @@
         <v>166427</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>152841</v>
+        <v>154200</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>177093</v>
+        <v>177290</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8249605402045094</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7576196217903027</v>
+        <v>0.7643556380875156</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8778317518104808</v>
+        <v>0.878809223819852</v>
       </c>
     </row>
     <row r="11">
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4419</v>
+        <v>4456</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03708751132104731</v>
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1662853831390793</v>
+        <v>0.1676611282234833</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -2735,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>6301</v>
+        <v>6829</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04942765554568661</v>
@@ -2744,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2832437284772489</v>
+        <v>0.3069581542612883</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7188</v>
+        <v>6627</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.04271052085968116</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1472318218838271</v>
+        <v>0.1357357228208626</v>
       </c>
     </row>
     <row r="13">
@@ -2795,19 +2795,19 @@
         <v>3324</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1021</v>
+        <v>1007</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8331</v>
+        <v>8905</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1494089770509839</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04589371177476423</v>
+        <v>0.04525636622908047</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3744725437421664</v>
+        <v>0.4002865687251437</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -2816,19 +2816,19 @@
         <v>3324</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>955</v>
+        <v>1013</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8437</v>
+        <v>8891</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.068080898231136</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01955573957284743</v>
+        <v>0.02075437425135171</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1728223662254816</v>
+        <v>0.1821184314787209</v>
       </c>
     </row>
     <row r="14">
@@ -2845,7 +2845,7 @@
         <v>25589</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22156</v>
+        <v>22119</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>26575</v>
@@ -2854,7 +2854,7 @@
         <v>0.9629124886789527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.833714616860921</v>
+        <v>0.8323388717765167</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -2866,19 +2866,19 @@
         <v>17823</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12735</v>
+        <v>12089</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>21146</v>
+        <v>21102</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8011633674033295</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5724672057175089</v>
+        <v>0.5434278097126569</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9505646757423644</v>
+        <v>0.9485708641385925</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>34</v>
@@ -2887,19 +2887,19 @@
         <v>43412</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>37532</v>
+        <v>36955</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46855</v>
+        <v>46844</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8892085809091829</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7687723530761735</v>
+        <v>0.7569560226719493</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9597272517802214</v>
+        <v>0.9595108700980758</v>
       </c>
     </row>
     <row r="15">
@@ -2991,19 +2991,19 @@
         <v>54930</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41084</v>
+        <v>42349</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>71975</v>
+        <v>72401</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0981534888294642</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07341173984082779</v>
+        <v>0.07567154546807385</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1286104641242176</v>
+        <v>0.1293721925639718</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>84</v>
@@ -3012,19 +3012,19 @@
         <v>93442</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>74877</v>
+        <v>77786</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>112722</v>
+        <v>117903</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1262959488317165</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1012040978163444</v>
+        <v>0.10513529141562</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.15235494006523</v>
+        <v>0.159357217095364</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>133</v>
@@ -3033,19 +3033,19 @@
         <v>148372</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>127102</v>
+        <v>125837</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>174970</v>
+        <v>173157</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1141762575369242</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09780819130801859</v>
+        <v>0.09683475073073484</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1346437030375118</v>
+        <v>0.1332490218550789</v>
       </c>
     </row>
     <row r="17">
@@ -3062,19 +3062,19 @@
         <v>83709</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>68244</v>
+        <v>66315</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>104482</v>
+        <v>104273</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1495779131260853</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1219434865830812</v>
+        <v>0.1184968755747604</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1866965547753222</v>
+        <v>0.1863219281191746</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>142</v>
@@ -3083,19 +3083,19 @@
         <v>151865</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>130690</v>
+        <v>129539</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>176297</v>
+        <v>173936</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2052605610773433</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1766401397046052</v>
+        <v>0.1750850163296743</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2382826900033085</v>
+        <v>0.2350919049835171</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>215</v>
@@ -3104,19 +3104,19 @@
         <v>235574</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>209141</v>
+        <v>208110</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>262237</v>
+        <v>267239</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1812805499627557</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.160939697454223</v>
+        <v>0.160146320995295</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2017981133681099</v>
+        <v>0.2056475002948706</v>
       </c>
     </row>
     <row r="18">
@@ -3133,19 +3133,19 @@
         <v>420997</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>398432</v>
+        <v>397822</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>441159</v>
+        <v>443466</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7522685980444506</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7119470267056931</v>
+        <v>0.7108565115439353</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.7882950058111217</v>
+        <v>0.7924168999789841</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>465</v>
@@ -3154,19 +3154,19 @@
         <v>494558</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>466175</v>
+        <v>466948</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>520337</v>
+        <v>517208</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6684434900909402</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6300816307982432</v>
+        <v>0.6311263453520576</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7032860711217424</v>
+        <v>0.6990571949990706</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>847</v>
@@ -3175,19 +3175,19 @@
         <v>915555</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>882710</v>
+        <v>882381</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>948022</v>
+        <v>950287</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7045431925003202</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6792677061824091</v>
+        <v>0.6790144858212721</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.729527222894828</v>
+        <v>0.731270446356273</v>
       </c>
     </row>
     <row r="19">
@@ -3518,19 +3518,19 @@
         <v>36294</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>25609</v>
+        <v>26864</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47619</v>
+        <v>48763</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1025532774247191</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07236275730447987</v>
+        <v>0.07590817608283466</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1345556559264781</v>
+        <v>0.1377884478433041</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>38</v>
@@ -3539,19 +3539,19 @@
         <v>48729</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34748</v>
+        <v>35556</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65298</v>
+        <v>65854</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08783915504519474</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06263685648776766</v>
+        <v>0.06409312505243835</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1177047120008492</v>
+        <v>0.1187085373420973</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>79</v>
@@ -3560,19 +3560,19 @@
         <v>85023</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>68881</v>
+        <v>67473</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>105267</v>
+        <v>103259</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09356996659214803</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07580535153478339</v>
+        <v>0.07425591143982156</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1158491547885213</v>
+        <v>0.113639437203141</v>
       </c>
     </row>
     <row r="5">
@@ -3589,19 +3589,19 @@
         <v>53098</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>42113</v>
+        <v>41341</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>66359</v>
+        <v>66503</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1500374206554464</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1189972165093546</v>
+        <v>0.1168162133348989</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.187507903645076</v>
+        <v>0.1879146097823951</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>108</v>
@@ -3610,19 +3610,19 @@
         <v>133883</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>112527</v>
+        <v>113851</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>156333</v>
+        <v>159175</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2413369708294304</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2028399345464013</v>
+        <v>0.2052262643719099</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2818050561958336</v>
+        <v>0.2869271983794605</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>167</v>
@@ -3631,19 +3631,19 @@
         <v>186982</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>161254</v>
+        <v>161053</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>212929</v>
+        <v>215512</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.20577790023907</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1774640695709952</v>
+        <v>0.1772428123609654</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2343339877315156</v>
+        <v>0.2371756241599246</v>
       </c>
     </row>
     <row r="6">
@@ -3660,19 +3660,19 @@
         <v>264509</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>249734</v>
+        <v>248271</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>278604</v>
+        <v>278754</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7474093019198345</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.705661075770048</v>
+        <v>0.7015264850949409</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7872359499623549</v>
+        <v>0.7876605324892904</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>325</v>
@@ -3681,19 +3681,19 @@
         <v>372144</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>347567</v>
+        <v>345234</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>394708</v>
+        <v>394467</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6708238741253748</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6265215023554006</v>
+        <v>0.6223164604914087</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7114962442411088</v>
+        <v>0.7110620242077746</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>611</v>
@@ -3702,19 +3702,19 @@
         <v>636653</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>610968</v>
+        <v>608080</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>666075</v>
+        <v>665559</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7006521331687819</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6723849276811695</v>
+        <v>0.6692072078125175</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.733031808099356</v>
+        <v>0.7324636689488594</v>
       </c>
     </row>
     <row r="7">
@@ -3806,19 +3806,19 @@
         <v>8853</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4321</v>
+        <v>4561</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16555</v>
+        <v>16977</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04597957847862759</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02244078997350546</v>
+        <v>0.02369112025042034</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08598807170358572</v>
+        <v>0.08817989564401341</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -3840,19 +3840,19 @@
         <v>8853</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4138</v>
+        <v>4035</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>16250</v>
+        <v>16184</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02325906589885026</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01087205439753251</v>
+        <v>0.01060026062450589</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0426948955758453</v>
+        <v>0.04252228210828133</v>
       </c>
     </row>
     <row r="9">
@@ -3869,19 +3869,19 @@
         <v>9861</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5379</v>
+        <v>5068</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>16787</v>
+        <v>16616</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.0512185445574131</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02793739467529535</v>
+        <v>0.02632241766297263</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08719182446718657</v>
+        <v>0.08630331460326721</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>35</v>
@@ -3890,19 +3890,19 @@
         <v>45211</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>32227</v>
+        <v>33532</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>59360</v>
+        <v>59815</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2403910562156792</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.171352601273709</v>
+        <v>0.1782901543086575</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3156202399840937</v>
+        <v>0.3180391090735775</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>47</v>
@@ -3911,19 +3911,19 @@
         <v>55073</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>40730</v>
+        <v>40297</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>70655</v>
+        <v>69763</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1446969228526288</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1070143592229829</v>
+        <v>0.105875975749942</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1856382508532031</v>
+        <v>0.1832948820958417</v>
       </c>
     </row>
     <row r="10">
@@ -3940,19 +3940,19 @@
         <v>173818</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>163713</v>
+        <v>165070</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>180430</v>
+        <v>180816</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9028018769639593</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8503157538228938</v>
+        <v>0.8573617069808482</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9371409410253049</v>
+        <v>0.9391497434486475</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>122</v>
@@ -3961,19 +3961,19 @@
         <v>142863</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>128714</v>
+        <v>128259</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>155847</v>
+        <v>154542</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7596089437843209</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6843797600159062</v>
+        <v>0.6819608909264225</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8286473987262909</v>
+        <v>0.8217098456913424</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>298</v>
@@ -3982,19 +3982,19 @@
         <v>316681</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>300600</v>
+        <v>300275</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>332107</v>
+        <v>331146</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.832044011248521</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7897924309883693</v>
+        <v>0.7889403206247397</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8725729510398745</v>
+        <v>0.8700480429851843</v>
       </c>
     </row>
     <row r="11">
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4204</v>
+        <v>3999</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01751022777979257</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1000254992253527</v>
+        <v>0.09513962094394657</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1</v>
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>7265</v>
+        <v>6865</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04085587878785221</v>
@@ -4119,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2157572230641128</v>
+        <v>0.2038683198462604</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>7898</v>
+        <v>7861</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02789475917205586</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1043292420808501</v>
+        <v>0.1038339724605015</v>
       </c>
     </row>
     <row r="13">
@@ -4157,19 +4157,19 @@
         <v>4382</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1549</v>
+        <v>1127</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10570</v>
+        <v>10802</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1042683630725769</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03685495957557157</v>
+        <v>0.02681717437147403</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.25149693722806</v>
+        <v>0.2570029723318805</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -4178,19 +4178,19 @@
         <v>4287</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1032</v>
+        <v>990</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11472</v>
+        <v>11286</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1273024175771648</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03064822388054038</v>
+        <v>0.02938889863843029</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3406673935796991</v>
+        <v>0.3351637930319155</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -4199,19 +4199,19 @@
         <v>8669</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3784</v>
+        <v>3756</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>17496</v>
+        <v>16216</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.11451429119047</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04999069791189806</v>
+        <v>0.04961136903354842</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2311123976417465</v>
+        <v>0.214199253668146</v>
       </c>
     </row>
     <row r="14">
@@ -4228,19 +4228,19 @@
         <v>36911</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>31078</v>
+        <v>30349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>40231</v>
+        <v>40280</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8782214091476306</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7394467633181502</v>
+        <v>0.7220884569916046</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9572306705813594</v>
+        <v>0.9583928364716744</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>22</v>
@@ -4249,19 +4249,19 @@
         <v>28011</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20862</v>
+        <v>20535</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31639</v>
+        <v>32395</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.831841703634983</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.619528148581883</v>
+        <v>0.6098030942819214</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9395751571412718</v>
+        <v>0.9620224353252481</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>58</v>
@@ -4270,19 +4270,19 @@
         <v>64922</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>54931</v>
+        <v>57132</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>70504</v>
+        <v>70474</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8575909496374742</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7256127243592795</v>
+        <v>0.7546869679938996</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9313297903435934</v>
+        <v>0.9309223376261003</v>
       </c>
     </row>
     <row r="15">
@@ -4374,19 +4374,19 @@
         <v>45882</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>35157</v>
+        <v>34620</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>58942</v>
+        <v>59324</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07796966119610138</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0597442245049897</v>
+        <v>0.05883204781964027</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1001624302107875</v>
+        <v>0.1008125984397186</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -4395,19 +4395,19 @@
         <v>50105</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36124</v>
+        <v>35091</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>65574</v>
+        <v>66321</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06452650675240662</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04652168130639125</v>
+        <v>0.04519041044914598</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08444720037500311</v>
+        <v>0.0854093472000283</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>90</v>
@@ -4416,19 +4416,19 @@
         <v>95987</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77551</v>
+        <v>76921</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>115738</v>
+        <v>114376</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07032209838339487</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05681531196005177</v>
+        <v>0.05635393914212176</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08479142590247582</v>
+        <v>0.08379420265558776</v>
       </c>
     </row>
     <row r="17">
@@ -4445,19 +4445,19 @@
         <v>67342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53166</v>
+        <v>53745</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82192</v>
+        <v>83626</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1144371348708482</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09034710736296114</v>
+        <v>0.09133173569223307</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1396715999314564</v>
+        <v>0.1421093900466927</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>146</v>
@@ -4466,19 +4466,19 @@
         <v>183381</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>157510</v>
+        <v>155841</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>210316</v>
+        <v>209386</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2361626241205353</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2028450350620241</v>
+        <v>0.2006953362256186</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.270849683054711</v>
+        <v>0.2696513966104956</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>221</v>
@@ -4487,19 +4487,19 @@
         <v>250723</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>221631</v>
+        <v>220154</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>281751</v>
+        <v>280514</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1836845223678381</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1623705229573904</v>
+        <v>0.1612889267505357</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2064157928161418</v>
+        <v>0.2055092439364001</v>
       </c>
     </row>
     <row r="18">
@@ -4516,19 +4516,19 @@
         <v>475239</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>457145</v>
+        <v>457430</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>493463</v>
+        <v>492303</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8075932039330503</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7768451954001822</v>
+        <v>0.7773301864900362</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8385633312709214</v>
+        <v>0.8365905093286788</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>469</v>
@@ -4537,19 +4537,19 @@
         <v>543018</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>514254</v>
+        <v>515173</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>571733</v>
+        <v>569133</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6993108691270581</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6622680033513453</v>
+        <v>0.6634509395183777</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7362897910706279</v>
+        <v>0.7329423798928651</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>967</v>
@@ -4558,19 +4558,19 @@
         <v>1018257</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>982056</v>
+        <v>983320</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1052067</v>
+        <v>1050231</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.745993379248767</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7194719375838987</v>
+        <v>0.7203976266567966</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7707629654450348</v>
+        <v>0.7694178828333847</v>
       </c>
     </row>
     <row r="19">
@@ -4901,19 +4901,19 @@
         <v>35740</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27676</v>
+        <v>27646</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>45260</v>
+        <v>44728</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1238242540093334</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09588574826791198</v>
+        <v>0.095782824314241</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.156807525241845</v>
+        <v>0.1549660185439596</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>176</v>
@@ -4922,19 +4922,19 @@
         <v>95422</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>82882</v>
+        <v>83284</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>108959</v>
+        <v>110151</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1771062938770225</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1538331865130392</v>
+        <v>0.1545782697487004</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2022331910429528</v>
+        <v>0.2044447695281714</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>239</v>
@@ -4943,19 +4943,19 @@
         <v>131161</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>114981</v>
+        <v>116242</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>148184</v>
+        <v>148630</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1585195606475535</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1389641851914561</v>
+        <v>0.1404885888321453</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1790926144335011</v>
+        <v>0.1796316143173905</v>
       </c>
     </row>
     <row r="5">
@@ -4972,19 +4972,19 @@
         <v>52092</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>41216</v>
+        <v>41748</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>62723</v>
+        <v>63665</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1804796984652985</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1427992382821434</v>
+        <v>0.144641401257508</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2173107393195171</v>
+        <v>0.2205734126848987</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>275</v>
@@ -4993,19 +4993,19 @@
         <v>143326</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>128124</v>
+        <v>128655</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>158529</v>
+        <v>157987</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2660188829904391</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2378041176480464</v>
+        <v>0.2387885840567961</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2942359543941969</v>
+        <v>0.2932303111795278</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>353</v>
@@ -5014,19 +5014,19 @@
         <v>195418</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>176795</v>
+        <v>178953</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>213464</v>
+        <v>213063</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2361796724913073</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2136725522384122</v>
+        <v>0.2162797046431822</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2579900442348005</v>
+        <v>0.2575056005138868</v>
       </c>
     </row>
     <row r="6">
@@ -5043,19 +5043,19 @@
         <v>200800</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>187237</v>
+        <v>186903</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>213624</v>
+        <v>212802</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.6956960475253682</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6487049299341007</v>
+        <v>0.647547580732779</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7401260021212683</v>
+        <v>0.7372769497306441</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>568</v>
@@ -5064,19 +5064,19 @@
         <v>300034</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>282526</v>
+        <v>282334</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>316118</v>
+        <v>317255</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5568748231325384</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5243807150356402</v>
+        <v>0.5240227861983402</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5867273905657034</v>
+        <v>0.5888376610075609</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>853</v>
@@ -5085,19 +5085,19 @@
         <v>500834</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>480143</v>
+        <v>479510</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>522096</v>
+        <v>522549</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6053007668611391</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5802942703686583</v>
+        <v>0.5795287754265259</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6309982631886863</v>
+        <v>0.6315457984039661</v>
       </c>
     </row>
     <row r="7">
@@ -5189,19 +5189,19 @@
         <v>11147</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6486</v>
+        <v>6191</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17915</v>
+        <v>17168</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.03668794231716135</v>
+        <v>0.03668794231716136</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02134893977060046</v>
+        <v>0.02037800028285801</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05896596448027022</v>
+        <v>0.05650712576220739</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -5210,19 +5210,19 @@
         <v>11084</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>7110</v>
+        <v>6984</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16652</v>
+        <v>16723</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.04000351975100361</v>
+        <v>0.04000351975100362</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02566195090669652</v>
+        <v>0.02520666504646206</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06009939813799271</v>
+        <v>0.06035595894056751</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>37</v>
@@ -5231,19 +5231,19 @@
         <v>22231</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15412</v>
+        <v>15150</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>30246</v>
+        <v>29249</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.03826939722287839</v>
+        <v>0.0382693972228784</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02653134058738158</v>
+        <v>0.02608028175999403</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05206793067743487</v>
+        <v>0.05035137179720231</v>
       </c>
     </row>
     <row r="9">
@@ -5260,19 +5260,19 @@
         <v>30000</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>22530</v>
+        <v>21771</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>40758</v>
+        <v>38319</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09874078842111676</v>
+        <v>0.09874078842111679</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07415320146328463</v>
+        <v>0.07165788253815827</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1341497944465021</v>
+        <v>0.1261233670309284</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>82</v>
@@ -5281,19 +5281,19 @@
         <v>45275</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>36389</v>
+        <v>36726</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>54282</v>
+        <v>54986</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1634036726815499</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1313331326675919</v>
+        <v>0.1325483875730396</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1959108902586105</v>
+        <v>0.1984496522466365</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>127</v>
@@ -5302,19 +5302,19 @@
         <v>75275</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>64094</v>
+        <v>63593</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>88731</v>
+        <v>88852</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1295835111660865</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1103347634771989</v>
+        <v>0.1094724570544031</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1527461491239212</v>
+        <v>0.1529544302766722</v>
       </c>
     </row>
     <row r="10">
@@ -5331,19 +5331,19 @@
         <v>262678</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>251505</v>
+        <v>253406</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>271391</v>
+        <v>272728</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8645712692617218</v>
+        <v>0.864571269261722</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8277968669569989</v>
+        <v>0.8340540833309479</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8932480138209705</v>
+        <v>0.8976497969839687</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>425</v>
@@ -5352,19 +5352,19 @@
         <v>220718</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>211351</v>
+        <v>209937</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>230731</v>
+        <v>229530</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7965928075674464</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7627894375524122</v>
+        <v>0.757686429279243</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8327313465948617</v>
+        <v>0.8283966385721871</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>790</v>
@@ -5373,19 +5373,19 @@
         <v>483396</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>468301</v>
+        <v>468539</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>496589</v>
+        <v>497800</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.832147091611035</v>
+        <v>0.8321470916110352</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8061621871464763</v>
+        <v>0.8065718412316762</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8548584252307918</v>
+        <v>0.8569424025471346</v>
       </c>
     </row>
     <row r="11">
@@ -5477,19 +5477,19 @@
         <v>4539</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1992</v>
+        <v>1816</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8953</v>
+        <v>8885</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03818315078729249</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01676025318610056</v>
+        <v>0.01527764501708222</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07531296363348763</v>
+        <v>0.0747355911720938</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4107</v>
+        <v>3784</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01355403501471882</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04956304118506093</v>
+        <v>0.04567177000114815</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -5519,19 +5519,19 @@
         <v>5662</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2857</v>
+        <v>2742</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10777</v>
+        <v>10705</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.02806770640811313</v>
+        <v>0.02806770640811314</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01416261448053476</v>
+        <v>0.0135928909740793</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.05341900576690056</v>
+        <v>0.05306423111726126</v>
       </c>
     </row>
     <row r="13">
@@ -5548,19 +5548,19 @@
         <v>10154</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5624</v>
+        <v>5966</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16660</v>
+        <v>16411</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08541490413819958</v>
+        <v>0.08541490413819959</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04731113360560434</v>
+        <v>0.05018335047511302</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1401389832918942</v>
+        <v>0.1380494543649984</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -5569,19 +5569,19 @@
         <v>13373</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>9034</v>
+        <v>8888</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18737</v>
+        <v>18444</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1614012403565828</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1090325279670739</v>
+        <v>0.1072759060058783</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2261480560473781</v>
+        <v>0.2226107258834493</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -5590,19 +5590,19 @@
         <v>23527</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>17056</v>
+        <v>16938</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>31154</v>
+        <v>31760</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1166233147320793</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08454448297057014</v>
+        <v>0.08395978011917769</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1544298246285519</v>
+        <v>0.1574339192552874</v>
       </c>
     </row>
     <row r="14">
@@ -5619,19 +5619,19 @@
         <v>104188</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97263</v>
+        <v>97277</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>109364</v>
+        <v>109445</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.876401945074508</v>
+        <v>0.8764019450745079</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8181512347170145</v>
+        <v>0.8182752831931768</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9199448792429178</v>
+        <v>0.92062668797541</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>126</v>
@@ -5640,19 +5640,19 @@
         <v>68359</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>62362</v>
+        <v>63054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72722</v>
+        <v>73201</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8250447246286984</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7526697229114463</v>
+        <v>0.7610109687217096</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8777004088207505</v>
+        <v>0.8834797667630103</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>273</v>
@@ -5661,19 +5661,19 @@
         <v>172547</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>163907</v>
+        <v>163597</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>179273</v>
+        <v>179568</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8553089788598076</v>
+        <v>0.8553089788598075</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8124829867685105</v>
+        <v>0.8109482224529083</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8886523994767164</v>
+        <v>0.8901146328008506</v>
       </c>
     </row>
     <row r="15">
@@ -5765,19 +5765,19 @@
         <v>51426</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>41153</v>
+        <v>40718</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63621</v>
+        <v>63578</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07229418613748234</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05785275202520365</v>
+        <v>0.05724098879630699</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08943890225212617</v>
+        <v>0.08937806050228418</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>199</v>
@@ -5786,19 +5786,19 @@
         <v>107629</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>94032</v>
+        <v>93536</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>123728</v>
+        <v>121613</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1197585092242874</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1046298558301918</v>
+        <v>0.1040774935821159</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1376723142386181</v>
+        <v>0.135319417945396</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>285</v>
@@ -5807,19 +5807,19 @@
         <v>159054</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>142049</v>
+        <v>141304</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>177702</v>
+        <v>177828</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09878825777829334</v>
+        <v>0.09878825777829332</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08822655829403135</v>
+        <v>0.08776367231886606</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1103702072757695</v>
+        <v>0.1104487402510356</v>
       </c>
     </row>
     <row r="17">
@@ -5836,19 +5836,19 @@
         <v>92246</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>78644</v>
+        <v>78779</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>107650</v>
+        <v>106040</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1296800422755781</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.110558050809392</v>
+        <v>0.1107481496182001</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1513339570971136</v>
+        <v>0.1490714416905218</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>381</v>
@@ -5857,19 +5857,19 @@
         <v>201974</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>183616</v>
+        <v>184741</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>220354</v>
+        <v>220501</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2247371335603235</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2043100723361485</v>
+        <v>0.205561481392578</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2451884807890551</v>
+        <v>0.2453520923480595</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>518</v>
@@ -5878,19 +5878,19 @@
         <v>294221</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>268925</v>
+        <v>270803</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>316472</v>
+        <v>319532</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1827398822286159</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1670287226874012</v>
+        <v>0.1681952999905721</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1965602956108925</v>
+        <v>0.1984609672209671</v>
       </c>
     </row>
     <row r="18">
@@ -5907,19 +5907,19 @@
         <v>567666</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>549702</v>
+        <v>550342</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>584836</v>
+        <v>584391</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.7980257715869394</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7727718728647276</v>
+        <v>0.7736722754140052</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8221626953402574</v>
+        <v>0.8215377307862411</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1119</v>
@@ -5928,19 +5928,19 @@
         <v>589110</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>566150</v>
+        <v>567259</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>608964</v>
+        <v>608776</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6555043572153891</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6299562182657948</v>
+        <v>0.6311907331886575</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6775953958893719</v>
+        <v>0.6773866914150424</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1916</v>
@@ -5949,19 +5949,19 @@
         <v>1156776</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1127761</v>
+        <v>1129745</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1186300</v>
+        <v>1186004</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7184718599930907</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7004504188442283</v>
+        <v>0.7016825488838281</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7368092125463875</v>
+        <v>0.7366250873196537</v>
       </c>
     </row>
     <row r="19">
